--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>516342.1353938879</v>
+        <v>521540.2513877116</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17965173.46841271</v>
+        <v>16722200.63474372</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3370884.082190457</v>
+        <v>2152646.407911489</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6705084.718637898</v>
+        <v>7244531.265390284</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>101.8762729638809</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -725,7 +727,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>375.1988542647473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,10 +819,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>111.9183464525217</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -829,13 +831,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>18.05677735225773</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -896,13 +898,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>232.1691016163987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>44.14898434654627</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -953,7 +955,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -1066,10 +1068,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>3.139541480022982</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>85.55329631630653</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1120,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1138,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>92.84297126644577</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>317.739592099509</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1303,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170453</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1370,10 +1372,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1382,10 +1384,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>295.7145992044774</v>
       </c>
       <c r="W11" t="n">
-        <v>299.281787542825</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1534,7 +1536,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1543,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1585,7 +1587,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>243.9266518127009</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1607,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>157.7922224418617</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>103.8266356359359</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1780,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1850,19 +1852,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>260.7909029333708</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2017,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2090,10 +2092,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2245,19 +2247,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>83.42661545872123</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>18.05677735225841</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2725,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2959,16 +2961,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>35.34780583513513</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3187,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3205,7 +3207,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>206.0370214115934</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3250,10 +3252,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>168.7843377880174</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3430,10 +3432,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>94.43123673215325</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3667,13 +3669,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>83.42661545872123</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>173.7040795765152</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3758,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3803,7 +3805,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>107.3997314889826</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3913,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>18.05677735225841</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3961,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>120.4898091149242</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3995,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>337.6783262792273</v>
       </c>
       <c r="W44" t="n">
-        <v>289.3550538664523</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4135,7 +4137,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>31.2439167388814</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>748.0600879603978</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="C2" t="n">
-        <v>748.0600879603978</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="D2" t="n">
-        <v>748.0600879603978</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E2" t="n">
-        <v>748.0600879603978</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F2" t="n">
-        <v>748.0600879603978</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G2" t="n">
-        <v>346.6622565836617</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H2" t="n">
-        <v>57.53210202687796</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>57.53210202687796</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>57.53210202687796</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>737.032725467017</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>737.032725467017</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>737.032725467017</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
-        <v>1448.992488049632</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>2160.952250632246</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2707.451036590841</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>2876.605101343898</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2792.953227527735</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2572.886000400774</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2313.66369771779</v>
+        <v>2567.155500205286</v>
       </c>
       <c r="V2" t="n">
-        <v>1951.046747651617</v>
+        <v>2567.155500205286</v>
       </c>
       <c r="W2" t="n">
-        <v>1546.19129306265</v>
+        <v>2162.300045616319</v>
       </c>
       <c r="X2" t="n">
-        <v>1127.048829641961</v>
+        <v>1743.157582195629</v>
       </c>
       <c r="Y2" t="n">
-        <v>748.0600879603978</v>
+        <v>1743.157582195629</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>563.7038470181708</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>457.247385854813</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>362.1570970013663</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>268.03668232832</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>184.6528439444816</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>99.26775421066549</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>57.53210202687796</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>57.53210202687796</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>57.53210202687796</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>57.53210202687796</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>769.4918646094927</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>769.4918646094927</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>1062.860146779272</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1062.860146779272</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1603.599085411347</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>1720.771863505687</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1657.31642595407</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1527.137782284672</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1350.80123528464</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1151.683717346639</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>966.3609630798333</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>811.4935273187132</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>685.0077480979339</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1128.680697560714</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C4" t="n">
-        <v>956.1189860439393</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="D4" t="n">
-        <v>790.2409932454621</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E4" t="n">
-        <v>620.4829894961993</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F4" t="n">
-        <v>443.7759354579555</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G4" t="n">
-        <v>278.1846604837831</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>259.9454914410986</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>259.9454914410986</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>346.5251766057884</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>621.283631176924</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>1039.493512944885</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>1498.977380125798</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1941.236183283443</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>2360.905432509224</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>2708.412326479566</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>2876.605101343898</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2876.605101343898</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2876.605101343898</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2630.725654922353</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>2352.292654175459</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>2065.337146045889</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1793.310741632181</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1547.918986965593</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>1320.499316279702</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>292.4631354567064</v>
+        <v>532.1876844265735</v>
       </c>
       <c r="C5" t="n">
-        <v>57.94889139973796</v>
+        <v>532.1876844265735</v>
       </c>
       <c r="D5" t="n">
-        <v>57.94889139973796</v>
+        <v>487.5927507431934</v>
       </c>
       <c r="E5" t="n">
-        <v>57.94889139973796</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="F5" t="n">
-        <v>57.94889139973796</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G5" t="n">
-        <v>57.94889139973796</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H5" t="n">
-        <v>57.94889139973796</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I5" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J5" t="n">
-        <v>492.7867894797959</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>571.571748842997</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>1283.531511425612</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>1995.491274008227</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>2707.451036590841</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>2707.451036590841</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2707.451036590841</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q5" t="n">
-        <v>2707.451036590841</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R5" t="n">
-        <v>2876.605101343898</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2792.953227527735</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2572.886000400774</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U5" t="n">
-        <v>2313.66369771779</v>
+        <v>2190.771296621484</v>
       </c>
       <c r="V5" t="n">
-        <v>1951.046747651617</v>
+        <v>2190.771296621484</v>
       </c>
       <c r="W5" t="n">
-        <v>1546.19129306265</v>
+        <v>1785.915842032517</v>
       </c>
       <c r="X5" t="n">
-        <v>1127.048829641961</v>
+        <v>1366.773378611828</v>
       </c>
       <c r="Y5" t="n">
-        <v>718.7627059416142</v>
+        <v>958.4872549114813</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>563.7038470181708</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C6" t="n">
-        <v>457.247385854813</v>
+        <v>1406.536348780555</v>
       </c>
       <c r="D6" t="n">
-        <v>362.1570970013663</v>
+        <v>1311.446059927108</v>
       </c>
       <c r="E6" t="n">
-        <v>268.03668232832</v>
+        <v>1217.325645254062</v>
       </c>
       <c r="F6" t="n">
-        <v>184.6528439444816</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G6" t="n">
-        <v>99.26775421066549</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H6" t="n">
-        <v>57.53210202687796</v>
+        <v>1006.82106495262</v>
       </c>
       <c r="I6" t="n">
-        <v>83.59577518733556</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J6" t="n">
-        <v>179.6795602461177</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K6" t="n">
-        <v>179.6795602461177</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="L6" t="n">
-        <v>179.6795602461177</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="M6" t="n">
-        <v>891.6393228287325</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="N6" t="n">
-        <v>1603.599085411347</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="O6" t="n">
-        <v>1603.599085411347</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="P6" t="n">
-        <v>1603.599085411347</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q6" t="n">
-        <v>1603.599085411347</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R6" t="n">
-        <v>1720.771863505687</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S6" t="n">
-        <v>1657.31642595407</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T6" t="n">
-        <v>1527.137782284672</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U6" t="n">
-        <v>1350.80123528464</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V6" t="n">
-        <v>1151.683717346639</v>
+        <v>2100.972680272381</v>
       </c>
       <c r="W6" t="n">
-        <v>966.3609630798333</v>
+        <v>1915.649926005575</v>
       </c>
       <c r="X6" t="n">
-        <v>811.4935273187132</v>
+        <v>1760.782490244455</v>
       </c>
       <c r="Y6" t="n">
-        <v>685.0077480979339</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>745.6081181498621</v>
+        <v>990.3147246321321</v>
       </c>
       <c r="C7" t="n">
-        <v>573.046406633087</v>
+        <v>817.753013115357</v>
       </c>
       <c r="D7" t="n">
-        <v>407.1684138346097</v>
+        <v>651.8750203168797</v>
       </c>
       <c r="E7" t="n">
-        <v>237.410410085347</v>
+        <v>482.117016567617</v>
       </c>
       <c r="F7" t="n">
-        <v>60.7033560471032</v>
+        <v>305.4099625293732</v>
       </c>
       <c r="G7" t="n">
-        <v>57.53210202687796</v>
+        <v>139.8186875552008</v>
       </c>
       <c r="H7" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I7" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J7" t="n">
-        <v>144.1117871915678</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>418.8702417627034</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>837.0801235306644</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1296.563990711577</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1738.822793869222</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>2158.492043095003</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>2505.998937065345</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>2674.191711929678</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2652.77389063505</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2493.532521933046</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T7" t="n">
-        <v>2247.653075511501</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>1969.220074764607</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V7" t="n">
-        <v>1682.264566635037</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W7" t="n">
-        <v>1410.238162221329</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X7" t="n">
-        <v>1164.846407554741</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y7" t="n">
-        <v>937.4267368688493</v>
+        <v>1182.133343351119</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>897.0724062201907</v>
+        <v>2511.062984811828</v>
       </c>
       <c r="C8" t="n">
-        <v>458.9299334036141</v>
+        <v>2072.920511995252</v>
       </c>
       <c r="D8" t="n">
-        <v>458.9299334036141</v>
+        <v>1637.010727169696</v>
       </c>
       <c r="E8" t="n">
-        <v>458.9299334036141</v>
+        <v>1203.235982327991</v>
       </c>
       <c r="F8" t="n">
-        <v>458.9299334036141</v>
+        <v>775.368552737199</v>
       </c>
       <c r="G8" t="n">
-        <v>57.53210202687796</v>
+        <v>373.970721360463</v>
       </c>
       <c r="H8" t="n">
-        <v>57.53210202687796</v>
+        <v>84.84056680367922</v>
       </c>
       <c r="I8" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="J8" t="n">
-        <v>492.7867894797959</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="K8" t="n">
-        <v>1204.746552062411</v>
+        <v>918.7740693889972</v>
       </c>
       <c r="L8" t="n">
-        <v>1283.531511425612</v>
+        <v>1963.518315095385</v>
       </c>
       <c r="M8" t="n">
-        <v>1283.531511425612</v>
+        <v>1963.518315095385</v>
       </c>
       <c r="N8" t="n">
-        <v>1283.531511425612</v>
+        <v>1963.518315095385</v>
       </c>
       <c r="O8" t="n">
-        <v>1995.491274008227</v>
+        <v>2846.380210748971</v>
       </c>
       <c r="P8" t="n">
-        <v>2707.451036590841</v>
+        <v>3674.690085582366</v>
       </c>
       <c r="Q8" t="n">
-        <v>2707.451036590841</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="R8" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="S8" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="T8" t="n">
-        <v>2876.605101343898</v>
+        <v>4127.408092483945</v>
       </c>
       <c r="U8" t="n">
-        <v>2876.605101343898</v>
+        <v>4127.408092483945</v>
       </c>
       <c r="V8" t="n">
-        <v>2555.656018415101</v>
+        <v>3764.791142417772</v>
       </c>
       <c r="W8" t="n">
-        <v>2150.800563826134</v>
+        <v>3764.791142417772</v>
       </c>
       <c r="X8" t="n">
-        <v>1731.658100405445</v>
+        <v>3345.648678997083</v>
       </c>
       <c r="Y8" t="n">
-        <v>1323.371976705098</v>
+        <v>2937.362555296736</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>563.7038470181708</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C9" t="n">
-        <v>457.247385854813</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D9" t="n">
-        <v>362.1570970013663</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E9" t="n">
-        <v>268.03668232832</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F9" t="n">
-        <v>184.6528439444816</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G9" t="n">
-        <v>99.26775421066549</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H9" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="I9" t="n">
-        <v>83.59577518733556</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="J9" t="n">
-        <v>408.1541001535479</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="K9" t="n">
-        <v>891.6393228287325</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="L9" t="n">
-        <v>891.6393228287325</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="M9" t="n">
-        <v>891.6393228287325</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="N9" t="n">
-        <v>1603.599085411347</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="O9" t="n">
-        <v>1603.599085411347</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="P9" t="n">
-        <v>1603.599085411347</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q9" t="n">
-        <v>1603.599085411347</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R9" t="n">
-        <v>1720.771863505687</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S9" t="n">
-        <v>1657.31642595407</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T9" t="n">
-        <v>1527.137782284672</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U9" t="n">
-        <v>1350.80123528464</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V9" t="n">
-        <v>1151.683717346639</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W9" t="n">
-        <v>966.3609630798333</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X9" t="n">
-        <v>811.4935273187132</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y9" t="n">
-        <v>685.0077480979339</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1136.590262638759</v>
+        <v>793.9176148484312</v>
       </c>
       <c r="C10" t="n">
-        <v>964.0285511219844</v>
+        <v>621.3559033316561</v>
       </c>
       <c r="D10" t="n">
-        <v>798.1505583235071</v>
+        <v>455.4779105331788</v>
       </c>
       <c r="E10" t="n">
-        <v>628.3925545742443</v>
+        <v>285.7199067839161</v>
       </c>
       <c r="F10" t="n">
-        <v>451.6855005360005</v>
+        <v>109.0128527456723</v>
       </c>
       <c r="G10" t="n">
-        <v>286.0942255618281</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="H10" t="n">
-        <v>146.1920512522026</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="I10" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="J10" t="n">
-        <v>144.1117871915678</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K10" t="n">
-        <v>418.8702417627034</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L10" t="n">
-        <v>837.0801235306644</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M10" t="n">
-        <v>1296.563990711577</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N10" t="n">
-        <v>1738.822793869222</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O10" t="n">
-        <v>2158.492043095003</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P10" t="n">
-        <v>2505.998937065345</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q10" t="n">
-        <v>2674.191711929678</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R10" t="n">
-        <v>2674.191711929678</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S10" t="n">
-        <v>2674.191711929678</v>
+        <v>2541.842018631615</v>
       </c>
       <c r="T10" t="n">
-        <v>2428.312265508133</v>
+        <v>2295.96257221007</v>
       </c>
       <c r="U10" t="n">
-        <v>2360.202219253504</v>
+        <v>2017.529571463176</v>
       </c>
       <c r="V10" t="n">
-        <v>2073.246711123934</v>
+        <v>1730.574063333606</v>
       </c>
       <c r="W10" t="n">
-        <v>1801.220306710226</v>
+        <v>1458.547658919898</v>
       </c>
       <c r="X10" t="n">
-        <v>1555.828552043638</v>
+        <v>1213.15590425331</v>
       </c>
       <c r="Y10" t="n">
-        <v>1328.408881357747</v>
+        <v>985.7362335674184</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1320.572107836111</v>
+        <v>2109.248364062232</v>
       </c>
       <c r="C11" t="n">
-        <v>1320.572107836111</v>
+        <v>1671.105891245656</v>
       </c>
       <c r="D11" t="n">
-        <v>1320.572107836111</v>
+        <v>1235.1961064201</v>
       </c>
       <c r="E11" t="n">
-        <v>886.7973629944063</v>
+        <v>801.4213615783951</v>
       </c>
       <c r="F11" t="n">
-        <v>458.9299334036141</v>
+        <v>373.5539319876029</v>
       </c>
       <c r="G11" t="n">
-        <v>57.53210202687796</v>
+        <v>373.5539319876029</v>
       </c>
       <c r="H11" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="I11" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="J11" t="n">
-        <v>492.7867894797959</v>
+        <v>519.6784648837371</v>
       </c>
       <c r="K11" t="n">
-        <v>492.7867894797959</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="L11" t="n">
-        <v>492.7867894797959</v>
+        <v>1697.046479425607</v>
       </c>
       <c r="M11" t="n">
-        <v>1204.746552062411</v>
+        <v>1697.046479425607</v>
       </c>
       <c r="N11" t="n">
-        <v>1204.746552062411</v>
+        <v>1697.046479425607</v>
       </c>
       <c r="O11" t="n">
-        <v>1448.992488049632</v>
+        <v>2677.226145995913</v>
       </c>
       <c r="P11" t="n">
-        <v>2160.952250632246</v>
+        <v>3505.53602082931</v>
       </c>
       <c r="Q11" t="n">
-        <v>2707.451036590841</v>
+        <v>4052.034806787904</v>
       </c>
       <c r="R11" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="S11" t="n">
-        <v>2876.605101343898</v>
+        <v>4137.536997724798</v>
       </c>
       <c r="T11" t="n">
-        <v>2876.605101343898</v>
+        <v>3917.469770597837</v>
       </c>
       <c r="U11" t="n">
-        <v>2876.605101343898</v>
+        <v>3658.247467914854</v>
       </c>
       <c r="V11" t="n">
-        <v>2876.605101343898</v>
+        <v>3359.545852556796</v>
       </c>
       <c r="W11" t="n">
-        <v>2574.300265442055</v>
+        <v>2954.690397967829</v>
       </c>
       <c r="X11" t="n">
-        <v>2155.157802021366</v>
+        <v>2535.54793454714</v>
       </c>
       <c r="Y11" t="n">
-        <v>1746.871678321019</v>
+        <v>2535.54793454714</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>563.7038470181708</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C12" t="n">
-        <v>457.247385854813</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D12" t="n">
-        <v>362.1570970013663</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E12" t="n">
-        <v>268.03668232832</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F12" t="n">
-        <v>184.6528439444816</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G12" t="n">
-        <v>99.26775421066549</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H12" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="I12" t="n">
-        <v>83.59577518733556</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J12" t="n">
-        <v>408.1541001535479</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K12" t="n">
-        <v>891.6393228287325</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="L12" t="n">
-        <v>891.6393228287325</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="M12" t="n">
-        <v>891.6393228287325</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="N12" t="n">
-        <v>1603.599085411347</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="O12" t="n">
-        <v>1603.599085411347</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="P12" t="n">
-        <v>1603.599085411347</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q12" t="n">
-        <v>1603.599085411347</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R12" t="n">
-        <v>1720.771863505687</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S12" t="n">
-        <v>1657.31642595407</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T12" t="n">
-        <v>1527.137782284672</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U12" t="n">
-        <v>1350.80123528464</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V12" t="n">
-        <v>1151.683717346639</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W12" t="n">
-        <v>966.3609630798333</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X12" t="n">
-        <v>811.4935273187132</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y12" t="n">
-        <v>685.0077480979339</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>966.8322588894966</v>
+        <v>934.9198145077505</v>
       </c>
       <c r="C13" t="n">
-        <v>794.2705473727216</v>
+        <v>762.3581029909755</v>
       </c>
       <c r="D13" t="n">
-        <v>628.3925545742443</v>
+        <v>596.4801101924982</v>
       </c>
       <c r="E13" t="n">
-        <v>628.3925545742443</v>
+        <v>426.7221064432354</v>
       </c>
       <c r="F13" t="n">
-        <v>451.6855005360005</v>
+        <v>250.0150524049916</v>
       </c>
       <c r="G13" t="n">
-        <v>286.0942255618281</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="H13" t="n">
-        <v>146.1920512522026</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="I13" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="J13" t="n">
-        <v>144.1117871915678</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K13" t="n">
-        <v>418.8702417627034</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L13" t="n">
-        <v>837.0801235306644</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M13" t="n">
-        <v>1296.563990711577</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N13" t="n">
-        <v>1738.822793869222</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O13" t="n">
-        <v>2158.492043095003</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P13" t="n">
-        <v>2505.998937065345</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q13" t="n">
-        <v>2674.191711929678</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R13" t="n">
-        <v>2674.191711929678</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S13" t="n">
-        <v>2674.191711929678</v>
+        <v>2682.844218290934</v>
       </c>
       <c r="T13" t="n">
-        <v>2428.312265508133</v>
+        <v>2436.96477186939</v>
       </c>
       <c r="U13" t="n">
-        <v>2149.879264761238</v>
+        <v>2158.531771122495</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.488707374672</v>
+        <v>1871.576262992925</v>
       </c>
       <c r="W13" t="n">
-        <v>1631.462302960963</v>
+        <v>1599.549858579217</v>
       </c>
       <c r="X13" t="n">
-        <v>1386.070548294376</v>
+        <v>1354.158103912629</v>
       </c>
       <c r="Y13" t="n">
-        <v>1158.650877608484</v>
+        <v>1126.738433226738</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>491.3068468685828</v>
+        <v>1979.921082152916</v>
       </c>
       <c r="C14" t="n">
-        <v>491.3068468685828</v>
+        <v>1541.77860933634</v>
       </c>
       <c r="D14" t="n">
-        <v>491.3068468685828</v>
+        <v>1105.868824510784</v>
       </c>
       <c r="E14" t="n">
-        <v>57.53210202687796</v>
+        <v>672.0940796690793</v>
       </c>
       <c r="F14" t="n">
-        <v>57.53210202687796</v>
+        <v>244.226650078287</v>
       </c>
       <c r="G14" t="n">
-        <v>57.53210202687796</v>
+        <v>84.84056680367922</v>
       </c>
       <c r="H14" t="n">
-        <v>57.53210202687796</v>
+        <v>84.84056680367922</v>
       </c>
       <c r="I14" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="J14" t="n">
-        <v>57.53210202687796</v>
+        <v>519.6784648837371</v>
       </c>
       <c r="K14" t="n">
-        <v>737.032725467017</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="L14" t="n">
-        <v>737.032725467017</v>
+        <v>1697.046479425607</v>
       </c>
       <c r="M14" t="n">
-        <v>737.032725467017</v>
+        <v>1697.046479425607</v>
       </c>
       <c r="N14" t="n">
-        <v>737.032725467017</v>
+        <v>1697.046479425607</v>
       </c>
       <c r="O14" t="n">
-        <v>1448.992488049632</v>
+        <v>2677.226145995913</v>
       </c>
       <c r="P14" t="n">
-        <v>2160.952250632246</v>
+        <v>3505.53602082931</v>
       </c>
       <c r="Q14" t="n">
-        <v>2707.451036590841</v>
+        <v>4052.034806787904</v>
       </c>
       <c r="R14" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="S14" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="T14" t="n">
-        <v>2771.72971181265</v>
+        <v>4001.121644414</v>
       </c>
       <c r="U14" t="n">
-        <v>2512.507409129666</v>
+        <v>4001.121644414</v>
       </c>
       <c r="V14" t="n">
-        <v>2149.890459063493</v>
+        <v>3638.504694347826</v>
       </c>
       <c r="W14" t="n">
-        <v>1745.035004474526</v>
+        <v>3233.64923975886</v>
       </c>
       <c r="X14" t="n">
-        <v>1325.892541053837</v>
+        <v>2814.506776338171</v>
       </c>
       <c r="Y14" t="n">
-        <v>917.6064173534905</v>
+        <v>2406.220652637824</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>563.7038470181708</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C15" t="n">
-        <v>457.247385854813</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D15" t="n">
-        <v>362.1570970013663</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E15" t="n">
-        <v>268.03668232832</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F15" t="n">
-        <v>184.6528439444816</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G15" t="n">
-        <v>99.26775421066549</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H15" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="I15" t="n">
-        <v>83.59577518733556</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J15" t="n">
-        <v>408.1541001535479</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K15" t="n">
-        <v>408.1541001535479</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="L15" t="n">
-        <v>1062.860146779272</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="M15" t="n">
-        <v>1062.860146779272</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="N15" t="n">
-        <v>1062.860146779272</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="O15" t="n">
-        <v>1062.860146779272</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="P15" t="n">
-        <v>1062.860146779272</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q15" t="n">
-        <v>1603.599085411347</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R15" t="n">
-        <v>1720.771863505687</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S15" t="n">
-        <v>1657.31642595407</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T15" t="n">
-        <v>1527.137782284672</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U15" t="n">
-        <v>1350.80123528464</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V15" t="n">
-        <v>1151.683717346639</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W15" t="n">
-        <v>966.3609630798333</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X15" t="n">
-        <v>811.4935273187132</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y15" t="n">
-        <v>685.0077480979339</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>908.0281391038093</v>
+        <v>1163.481938042701</v>
       </c>
       <c r="C16" t="n">
-        <v>735.4664275870342</v>
+        <v>990.9202265259256</v>
       </c>
       <c r="D16" t="n">
-        <v>569.5884347885569</v>
+        <v>825.0422337274483</v>
       </c>
       <c r="E16" t="n">
-        <v>399.8304310392941</v>
+        <v>655.2842299781855</v>
       </c>
       <c r="F16" t="n">
-        <v>223.1233770010503</v>
+        <v>478.5771759399417</v>
       </c>
       <c r="G16" t="n">
-        <v>57.53210202687796</v>
+        <v>312.9859009657694</v>
       </c>
       <c r="H16" t="n">
-        <v>57.53210202687796</v>
+        <v>173.0837266561439</v>
       </c>
       <c r="I16" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="J16" t="n">
-        <v>144.1117871915678</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K16" t="n">
-        <v>418.8702417627034</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L16" t="n">
-        <v>837.0801235306644</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M16" t="n">
-        <v>1296.563990711577</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N16" t="n">
-        <v>1738.822793869222</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O16" t="n">
-        <v>2158.492043095003</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P16" t="n">
-        <v>2505.998937065345</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q16" t="n">
-        <v>2674.191711929678</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R16" t="n">
-        <v>2674.191711929678</v>
+        <v>2679.665566038991</v>
       </c>
       <c r="S16" t="n">
-        <v>2655.952542886993</v>
+        <v>2520.424197336987</v>
       </c>
       <c r="T16" t="n">
-        <v>2410.073096465449</v>
+        <v>2274.544750915442</v>
       </c>
       <c r="U16" t="n">
-        <v>2131.640095718554</v>
+        <v>2274.544750915442</v>
       </c>
       <c r="V16" t="n">
-        <v>1844.684587588984</v>
+        <v>2100.138386527876</v>
       </c>
       <c r="W16" t="n">
-        <v>1572.658183175276</v>
+        <v>1828.111982114167</v>
       </c>
       <c r="X16" t="n">
-        <v>1327.266428508688</v>
+        <v>1582.72022744758</v>
       </c>
       <c r="Y16" t="n">
-        <v>1099.846757822796</v>
+        <v>1355.300556761688</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1359.451789259802</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>921.3093164432257</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>485.3995316176702</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>485.3995316176702</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>57.53210202687796</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>57.53210202687796</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>57.53210202687796</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>57.53210202687796</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>492.7867894797959</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1204.746552062411</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L17" t="n">
-        <v>1204.746552062411</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M17" t="n">
-        <v>1204.746552062411</v>
+        <v>1694.563362934248</v>
       </c>
       <c r="N17" t="n">
-        <v>1204.746552062411</v>
+        <v>2820.294346370695</v>
       </c>
       <c r="O17" t="n">
-        <v>1448.992488049632</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>2160.952250632246</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>2707.451036590841</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>2876.605101343898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>2876.605101343898</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>2876.605101343898</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>2876.605101343898</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>2876.605101343898</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>2613.179946865746</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>2194.037483445057</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>1785.75135974471</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>563.7038470181708</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>457.247385854813</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>362.1570970013663</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>268.03668232832</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>184.6528439444816</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>99.26775421066549</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>57.53210202687796</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>83.59577518733556</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>408.1541001535479</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1062.860146779272</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1062.860146779272</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1062.860146779272</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1062.860146779272</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1062.860146779272</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1062.860146779272</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1603.599085411347</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1720.771863505687</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1657.31642595407</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1527.137782284672</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1350.80123528464</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1151.683717346639</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>966.3609630798333</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>811.4935273187132</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>685.0077480979339</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1136.590262638759</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>964.0285511219844</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>798.1505583235071</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>628.3925545742443</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>451.6855005360005</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>286.0942255618281</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>146.1920512522026</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>57.53210202687796</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>144.1117871915678</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>418.8702417627034</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>837.0801235306644</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1296.563990711577</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1738.822793869222</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2158.492043095003</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2505.998937065345</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2674.191711929678</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2674.191711929678</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2674.191711929678</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2428.312265508133</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2360.202219253504</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2073.246711123934</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1801.220306710226</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1555.828552043638</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1328.408881357747</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5740,7 @@
         <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5759,7 +5761,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5829,28 +5831,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>426.819165236992</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.552685307369</v>
+        <v>566.7757676570886</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.552685307369</v>
+        <v>566.7757676570886</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.552685307369</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.552685307369</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.552685307369</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>790.3368563937634</v>
+        <v>3365.117609755799</v>
       </c>
       <c r="C22" t="n">
-        <v>617.7751448769883</v>
+        <v>3192.555898239023</v>
       </c>
       <c r="D22" t="n">
-        <v>451.897152078511</v>
+        <v>3026.677905440546</v>
       </c>
       <c r="E22" t="n">
-        <v>367.6278435343481</v>
+        <v>2856.919901691283</v>
       </c>
       <c r="F22" t="n">
-        <v>190.9207894961043</v>
+        <v>2680.21284765304</v>
       </c>
       <c r="G22" t="n">
-        <v>190.9207894961043</v>
+        <v>2514.621572678867</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>4867.162567117437</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>4588.729566370543</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>4301.774058240973</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>4029.747653827265</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>3784.355899160677</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127505</v>
+        <v>3556.936228474786</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6308,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q27" t="n">
         <v>1648.327823655249</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6470,7 +6472,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883914</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716164</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>473.3149733731391</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>303.5569696238763</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.99296709327</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6686,37 +6688,37 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>605.8694973157604</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1680.92946356862</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2837.977298779171</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>3963.708282215618</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
         <v>4943.887948785924</v>
@@ -6774,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1008.757289365886</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2510.802246727525</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2232.36924598063</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1945.413737851061</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1673.387333437352</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1427.995578770765</v>
+        <v>1284.477670376323</v>
       </c>
       <c r="Y34" t="n">
-        <v>1200.575908084873</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3184.458419759167</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C37" t="n">
-        <v>3011.896708242392</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D37" t="n">
-        <v>2846.018715443915</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E37" t="n">
-        <v>2750.633627835679</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F37" t="n">
-        <v>2750.633627835679</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G37" t="n">
-        <v>2585.042352861507</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H37" t="n">
-        <v>2585.042352861507</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I37" t="n">
         <v>2496.382403636182</v>
@@ -7117,28 +7119,28 @@
         <v>5113.042013538981</v>
       </c>
       <c r="R37" t="n">
-        <v>5091.624192244353</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S37" t="n">
-        <v>4932.38282354235</v>
+        <v>5094.802844496297</v>
       </c>
       <c r="T37" t="n">
-        <v>4686.503377120805</v>
+        <v>4848.923398074752</v>
       </c>
       <c r="U37" t="n">
-        <v>4408.070376373911</v>
+        <v>4570.490397327858</v>
       </c>
       <c r="V37" t="n">
-        <v>4121.114868244342</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W37" t="n">
-        <v>3849.088463830633</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X37" t="n">
-        <v>3603.696709164046</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y37" t="n">
-        <v>3376.277038478154</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="38">
@@ -7160,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7175,25 +7177,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>605.8694973157604</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>1680.92946356862</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M38" t="n">
-        <v>2837.977298779171</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N38" t="n">
-        <v>3963.708282215618</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O38" t="n">
-        <v>4943.887948785924</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="P38" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937634</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769883</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D40" t="n">
-        <v>451.897152078511</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E40" t="n">
-        <v>367.6278435343481</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F40" t="n">
-        <v>190.9207894961043</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G40" t="n">
         <v>190.9207894961043</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2543.461783934675</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2510.646195438968</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2072.503722622392</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1636.593937796836</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1202.819192955131</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771597</v>
+        <v>774.9517633643391</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004232</v>
+        <v>373.5539319876029</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436392</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2608402707796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>519.6784648837371</v>
       </c>
       <c r="K41" t="n">
-        <v>775.0235620688178</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="L41" t="n">
-        <v>1850.083528321677</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="M41" t="n">
-        <v>3007.131363532228</v>
+        <v>1866.200544178664</v>
       </c>
       <c r="N41" t="n">
-        <v>4132.862346968675</v>
+        <v>1866.200544178664</v>
       </c>
       <c r="O41" t="n">
-        <v>5113.042013538981</v>
+        <v>2846.380210748971</v>
       </c>
       <c r="P41" t="n">
-        <v>5113.042013538981</v>
+        <v>3674.690085582366</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.042013538981</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>3858.571921474788</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3453.716466885821</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3345.231889624223</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2936.945765923876</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>608.4325852620724</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C42" t="n">
-        <v>501.9761240987147</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D42" t="n">
-        <v>406.885835245268</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E42" t="n">
-        <v>312.7654205722217</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F42" t="n">
-        <v>229.3815821883833</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G42" t="n">
-        <v>143.9964924545671</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2608402707796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="I42" t="n">
-        <v>128.3245134312372</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J42" t="n">
-        <v>452.8828383974496</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.588885023173</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.588885023173</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.588885023173</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.588885023173</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.588885023173</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="P42" t="n">
-        <v>1107.588885023173</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q42" t="n">
-        <v>1648.327823655249</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R42" t="n">
-        <v>1765.500601749588</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S42" t="n">
-        <v>1702.045164197971</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T42" t="n">
-        <v>1571.866520528573</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U42" t="n">
-        <v>1395.529973528541</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V42" t="n">
-        <v>1196.412455590541</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W42" t="n">
-        <v>1011.089701323735</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X42" t="n">
-        <v>856.2222655626148</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y42" t="n">
-        <v>729.7364863418355</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3365.117609755799</v>
+        <v>1163.481938042701</v>
       </c>
       <c r="C43" t="n">
-        <v>3192.555898239023</v>
+        <v>990.9202265259256</v>
       </c>
       <c r="D43" t="n">
-        <v>3026.677905440546</v>
+        <v>825.0422337274483</v>
       </c>
       <c r="E43" t="n">
-        <v>2856.919901691283</v>
+        <v>655.2842299781855</v>
       </c>
       <c r="F43" t="n">
-        <v>2680.21284765304</v>
+        <v>478.5771759399417</v>
       </c>
       <c r="G43" t="n">
-        <v>2514.621572678867</v>
+        <v>312.9859009657694</v>
       </c>
       <c r="H43" t="n">
-        <v>2496.382403636182</v>
+        <v>173.0837266561439</v>
       </c>
       <c r="I43" t="n">
-        <v>2496.382403636182</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="J43" t="n">
-        <v>2582.962088800872</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K43" t="n">
-        <v>2857.720543372007</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L43" t="n">
-        <v>3275.930425139968</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M43" t="n">
-        <v>3735.414292320881</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N43" t="n">
-        <v>4177.673095478525</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O43" t="n">
-        <v>4597.342344704308</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P43" t="n">
-        <v>4944.849238674649</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q43" t="n">
-        <v>5113.042013538981</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R43" t="n">
-        <v>5113.042013538981</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S43" t="n">
-        <v>5113.042013538981</v>
+        <v>2541.842018631615</v>
       </c>
       <c r="T43" t="n">
-        <v>4867.162567117437</v>
+        <v>2541.842018631615</v>
       </c>
       <c r="U43" t="n">
-        <v>4588.729566370543</v>
+        <v>2263.40901788472</v>
       </c>
       <c r="V43" t="n">
-        <v>4301.774058240973</v>
+        <v>1976.453509755151</v>
       </c>
       <c r="W43" t="n">
-        <v>4029.747653827265</v>
+        <v>1704.427105341442</v>
       </c>
       <c r="X43" t="n">
-        <v>3784.355899160677</v>
+        <v>1582.72022744758</v>
       </c>
       <c r="Y43" t="n">
-        <v>3556.936228474786</v>
+        <v>1355.300556761688</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1756.898682034527</v>
+        <v>2221.516040882185</v>
       </c>
       <c r="C44" t="n">
-        <v>1756.898682034527</v>
+        <v>1783.373568065608</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.988897208971</v>
+        <v>1347.463783240052</v>
       </c>
       <c r="E44" t="n">
-        <v>887.2141523672663</v>
+        <v>913.6890383983475</v>
       </c>
       <c r="F44" t="n">
-        <v>459.3467227764741</v>
+        <v>485.8216088075553</v>
       </c>
       <c r="G44" t="n">
-        <v>57.94889139973796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="H44" t="n">
-        <v>57.94889139973796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="I44" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="J44" t="n">
-        <v>57.53210202687796</v>
+        <v>519.6784648837371</v>
       </c>
       <c r="K44" t="n">
-        <v>57.53210202687796</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="L44" t="n">
-        <v>769.4918646094927</v>
+        <v>2398.773002548303</v>
       </c>
       <c r="M44" t="n">
-        <v>1481.451627192107</v>
+        <v>2398.773002548303</v>
       </c>
       <c r="N44" t="n">
-        <v>2193.411389774722</v>
+        <v>3443.517248254691</v>
       </c>
       <c r="O44" t="n">
-        <v>2876.605101343898</v>
+        <v>3443.517248254691</v>
       </c>
       <c r="P44" t="n">
-        <v>2876.605101343898</v>
+        <v>3505.53602082931</v>
       </c>
       <c r="Q44" t="n">
-        <v>2876.605101343898</v>
+        <v>4052.034806787904</v>
       </c>
       <c r="R44" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="S44" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="T44" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="U44" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="V44" t="n">
-        <v>2876.605101343898</v>
+        <v>3880.099653077095</v>
       </c>
       <c r="W44" t="n">
-        <v>2584.327269155563</v>
+        <v>3475.244198488128</v>
       </c>
       <c r="X44" t="n">
-        <v>2165.184805734873</v>
+        <v>3056.101735067439</v>
       </c>
       <c r="Y44" t="n">
-        <v>1756.898682034527</v>
+        <v>2647.815611367093</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>563.7038470181708</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C45" t="n">
-        <v>457.247385854813</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D45" t="n">
-        <v>362.1570970013663</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E45" t="n">
-        <v>268.03668232832</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F45" t="n">
-        <v>184.6528439444816</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G45" t="n">
-        <v>99.26775421066549</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H45" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="I45" t="n">
-        <v>83.59577518733556</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J45" t="n">
-        <v>408.1541001535479</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K45" t="n">
-        <v>1062.860146779272</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="L45" t="n">
-        <v>1062.860146779272</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="M45" t="n">
-        <v>1062.860146779272</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="N45" t="n">
-        <v>1062.860146779272</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="O45" t="n">
-        <v>1062.860146779272</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="P45" t="n">
-        <v>1062.860146779272</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q45" t="n">
-        <v>1603.599085411347</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R45" t="n">
-        <v>1720.771863505687</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S45" t="n">
-        <v>1657.31642595407</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T45" t="n">
-        <v>1527.137782284672</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U45" t="n">
-        <v>1350.80123528464</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V45" t="n">
-        <v>1151.683717346639</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W45" t="n">
-        <v>966.3609630798333</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X45" t="n">
-        <v>811.4935273187132</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y45" t="n">
-        <v>685.0077480979339</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>767.0259394444902</v>
+        <v>1163.481938042701</v>
       </c>
       <c r="C46" t="n">
-        <v>735.4664275870342</v>
+        <v>990.9202265259256</v>
       </c>
       <c r="D46" t="n">
-        <v>569.5884347885569</v>
+        <v>825.0422337274483</v>
       </c>
       <c r="E46" t="n">
-        <v>399.8304310392941</v>
+        <v>655.2842299781855</v>
       </c>
       <c r="F46" t="n">
-        <v>223.1233770010503</v>
+        <v>478.5771759399417</v>
       </c>
       <c r="G46" t="n">
-        <v>57.53210202687796</v>
+        <v>312.9859009657694</v>
       </c>
       <c r="H46" t="n">
-        <v>57.53210202687796</v>
+        <v>173.0837266561439</v>
       </c>
       <c r="I46" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="J46" t="n">
-        <v>144.1117871915678</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K46" t="n">
-        <v>418.8702417627034</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L46" t="n">
-        <v>837.0801235306644</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M46" t="n">
-        <v>1296.563990711577</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N46" t="n">
-        <v>1738.822793869222</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O46" t="n">
-        <v>2158.492043095003</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P46" t="n">
-        <v>2505.998937065345</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q46" t="n">
-        <v>2674.191711929678</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R46" t="n">
-        <v>2674.191711929678</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S46" t="n">
-        <v>2514.950343227674</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="T46" t="n">
-        <v>2269.070896806129</v>
+        <v>2665.52689540434</v>
       </c>
       <c r="U46" t="n">
-        <v>1990.637896059235</v>
+        <v>2387.093894657445</v>
       </c>
       <c r="V46" t="n">
-        <v>1703.682387929665</v>
+        <v>2100.138386527876</v>
       </c>
       <c r="W46" t="n">
-        <v>1431.655983515957</v>
+        <v>1828.111982114167</v>
       </c>
       <c r="X46" t="n">
-        <v>1186.264228849369</v>
+        <v>1582.72022744758</v>
       </c>
       <c r="Y46" t="n">
-        <v>958.8445581634774</v>
+        <v>1355.300556761688</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>686.3642661011506</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>719.1512753359746</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8052,25 +8054,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>296.3315981512919</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8216,25 +8218,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>79.58076703353646</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>719.1512753359746</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M5" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8292,7 +8294,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>97.05432834220422</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,19 +8303,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8450,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>719.1512753359746</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>79.5807670335364</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>719.1512753359746</v>
+        <v>891.7796925793796</v>
       </c>
       <c r="P8" t="n">
-        <v>719.1512753359746</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,22 +8528,22 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>488.3689117931158</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="N9" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8690,22 +8692,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>346.4825480643353</v>
       </c>
       <c r="M11" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>246.7130666537587</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>719.1512753359746</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8769,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>488.3689117931158</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8924,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>686.3642661011506</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>346.4825480643353</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>719.1512753359746</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>719.1512753359746</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9009,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9164,22 +9166,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>246.7130666537587</v>
+        <v>756.3484258820595</v>
       </c>
       <c r="P17" t="n">
-        <v>719.1512753359746</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9243,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9407,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9477,16 +9479,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>469.2069973599081</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,10 +9956,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9972,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10118,10 +10120,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>508.6956131767483</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10422,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10659,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>508.6956131767483</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -10835,16 +10837,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>832.9621348837863</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>517.3452397340902</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>719.1512753359746</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M44" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>719.1512753359746</v>
+        <v>1055.297217885241</v>
       </c>
       <c r="O44" t="n">
-        <v>690.0946581506828</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>62.64522482284747</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
@@ -22553,19 +22555,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,16 +22597,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>154.7538066922724</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>29.0044081985958</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22705,10 +22707,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>58.91774794908564</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22717,13 +22719,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>120.4463752142715</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22784,13 +22786,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>201.5919464720122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>387.4017026307536</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -22832,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -22841,7 +22843,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22954,10 +22956,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>52.94985625022269</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -22987,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -23008,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -23024,22 +23026,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23072,16 +23074,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>125.023583589246</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>41.2511884660027</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23191,13 +23193,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23227,13 +23229,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23258,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>63.27618136103433</v>
       </c>
       <c r="W11" t="n">
-        <v>101.525112500252</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23422,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>40.15930123557294</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23495,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>239.591630621107</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,10 +23548,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>114.0399192197558</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>111.423652304583</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23738,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>140.0159971097062</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>84.63380825304888</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142708</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24414,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24613,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>37.38363054573588</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>74.1534993319043</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25318,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>73.62918697961686</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25555,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>84.63380825304888</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>69.71657238081409</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>307.5513072974998</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>120.4463752142708</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25836,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>122.4480280049975</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25922,10 +25924,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>21.31245428628438</v>
       </c>
       <c r="W44" t="n">
-        <v>111.4518461766247</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26073,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>470137.2476637848</v>
+        <v>448961.7091839094</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>470137.2476637848</v>
+        <v>448961.7091839094</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>470137.2476637848</v>
+        <v>607988.0081232062</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>470137.2476637848</v>
+        <v>607988.0081232062</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>470137.2476637848</v>
+        <v>607988.0081232062</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>470137.2476637848</v>
+        <v>699423.4668633731</v>
       </c>
     </row>
     <row r="8">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>699423.4668633731</v>
+        <v>607988.0081232062</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>470137.2476637847</v>
+        <v>607988.0081232062</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>194778.2172585169</v>
+        <v>186005.1756518478</v>
       </c>
       <c r="C2" t="n">
-        <v>194778.2172585169</v>
+        <v>186005.1756518479</v>
       </c>
       <c r="D2" t="n">
-        <v>194778.2172585169</v>
+        <v>251889.8915694593</v>
       </c>
       <c r="E2" t="n">
-        <v>194778.2172585169</v>
+        <v>251889.8915694594</v>
       </c>
       <c r="F2" t="n">
-        <v>194778.2172585169</v>
+        <v>251889.8915694593</v>
       </c>
       <c r="G2" t="n">
-        <v>194778.2172585169</v>
+        <v>289771.6712755438</v>
       </c>
       <c r="H2" t="n">
         <v>289771.6712755438</v>
       </c>
       <c r="I2" t="n">
-        <v>289771.6712755438</v>
+        <v>289771.6712755437</v>
       </c>
       <c r="J2" t="n">
-        <v>289771.6712755438</v>
+        <v>289771.6712755437</v>
       </c>
       <c r="K2" t="n">
-        <v>289771.6712755438</v>
+        <v>289771.6712755437</v>
       </c>
       <c r="L2" t="n">
         <v>289771.6712755438</v>
@@ -26347,13 +26349,13 @@
         <v>289771.6712755438</v>
       </c>
       <c r="N2" t="n">
-        <v>289771.6712755437</v>
+        <v>289771.6712755438</v>
       </c>
       <c r="O2" t="n">
-        <v>289771.6712755438</v>
+        <v>251889.8915694593</v>
       </c>
       <c r="P2" t="n">
-        <v>194778.2172585169</v>
+        <v>251889.8915694593</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>241004.1328444178</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>120456.7261630936</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,22 +26380,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>61110.89210613183</v>
       </c>
       <c r="H3" t="n">
-        <v>150852.7017106108</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>188161.6162840057</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>98144.1370162042</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45708.5909289449</v>
+        <v>43649.82185483626</v>
       </c>
       <c r="C4" t="n">
-        <v>45708.5909289449</v>
+        <v>43649.82185483626</v>
       </c>
       <c r="D4" t="n">
-        <v>45708.5909289449</v>
+        <v>59110.9836353185</v>
       </c>
       <c r="E4" t="n">
-        <v>45708.59092894489</v>
+        <v>59110.98363531849</v>
       </c>
       <c r="F4" t="n">
-        <v>45708.5909289449</v>
+        <v>59110.98363531849</v>
       </c>
       <c r="G4" t="n">
-        <v>45708.5909289449</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="H4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="I4" t="n">
         <v>68000.69828933281</v>
@@ -26442,7 +26444,7 @@
         <v>68000.69828933279</v>
       </c>
       <c r="K4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="L4" t="n">
         <v>68000.69828933279</v>
@@ -26454,10 +26456,10 @@
         <v>68000.69828933279</v>
       </c>
       <c r="O4" t="n">
-        <v>68000.69828933279</v>
+        <v>59110.98363531851</v>
       </c>
       <c r="P4" t="n">
-        <v>45708.5909289449</v>
+        <v>59110.98363531849</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77351.99754042726</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>77351.99754042726</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="D5" t="n">
-        <v>77351.99754042726</v>
+        <v>97789.67084742262</v>
       </c>
       <c r="E5" t="n">
-        <v>43724.39754042725</v>
+        <v>64162.07084742261</v>
       </c>
       <c r="F5" t="n">
-        <v>43724.39754042725</v>
+        <v>64162.07084742261</v>
       </c>
       <c r="G5" t="n">
-        <v>43724.39754042725</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>64162.07084742261</v>
       </c>
       <c r="P5" t="n">
-        <v>43724.39754042725</v>
+        <v>64162.07084742261</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-169286.504055273</v>
+        <v>-155556.869348791</v>
       </c>
       <c r="C6" t="n">
-        <v>71717.62878914474</v>
+        <v>68142.82923525388</v>
       </c>
       <c r="D6" t="n">
-        <v>71717.62878914471</v>
+        <v>-25467.48907637532</v>
       </c>
       <c r="E6" t="n">
-        <v>105345.2287891447</v>
+        <v>128616.8370867183</v>
       </c>
       <c r="F6" t="n">
-        <v>105345.2287891447</v>
+        <v>128616.8370867182</v>
       </c>
       <c r="G6" t="n">
-        <v>105345.2287891448</v>
+        <v>82941.84227428667</v>
       </c>
       <c r="H6" t="n">
-        <v>-6799.967330192318</v>
+        <v>144052.7343804185</v>
       </c>
       <c r="I6" t="n">
-        <v>144052.7343804185</v>
+        <v>144052.7343804184</v>
       </c>
       <c r="J6" t="n">
-        <v>-44108.88190358717</v>
+        <v>-30598.6143372877</v>
       </c>
       <c r="K6" t="n">
-        <v>144052.7343804185</v>
+        <v>144052.7343804184</v>
       </c>
       <c r="L6" t="n">
-        <v>144052.7343804185</v>
+        <v>45908.59736421431</v>
       </c>
       <c r="M6" t="n">
         <v>144052.7343804185</v>
       </c>
       <c r="N6" t="n">
-        <v>144052.7343804184</v>
+        <v>144052.7343804185</v>
       </c>
       <c r="O6" t="n">
-        <v>144052.7343804185</v>
+        <v>128616.8370867182</v>
       </c>
       <c r="P6" t="n">
-        <v>105345.2287891447</v>
+        <v>128616.8370867182</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>719.1512753359746</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>719.1512753359746</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="D4" t="n">
-        <v>719.1512753359746</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="E4" t="n">
-        <v>719.1512753359746</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="F4" t="n">
-        <v>719.1512753359746</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="G4" t="n">
-        <v>719.1512753359746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.260503384745</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="P4" t="n">
-        <v>719.1512753359746</v>
+        <v>1055.29721788524</v>
       </c>
     </row>
   </sheetData>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>719.1512753359746</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>387.7820112773832</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27024,22 +27026,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>222.963285499505</v>
       </c>
       <c r="H4" t="n">
-        <v>559.1092280487708</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>719.1512753359743</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>387.7820112773832</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>719.1512753359746</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>387.7820112773832</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>222.963285499505</v>
       </c>
       <c r="P4" t="n">
-        <v>559.1092280487708</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>686.3642661011506</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>719.1512753359746</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34772,25 +34774,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>296.3315981512919</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34863,7 +34865,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -34936,25 +34938,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>79.58076703353646</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>719.1512753359746</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M5" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35012,7 +35014,7 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>97.05432834220422</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35021,22 +35023,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094345</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35100,13 +35102,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35170,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>719.1512753359746</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>79.5807670335364</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>719.1512753359746</v>
+        <v>891.7796925793796</v>
       </c>
       <c r="P8" t="n">
-        <v>719.1512753359746</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,22 +35248,22 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>488.3689117931158</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="N9" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,13 +35339,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35410,22 +35412,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>346.4825480643353</v>
       </c>
       <c r="M11" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>246.7130666537587</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>719.1512753359746</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35483,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>488.3689117931158</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35498,7 +35500,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35507,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,13 +35576,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>686.3642661011506</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>346.4825480643353</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35659,10 +35661,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>719.1512753359746</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>719.1512753359746</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35729,7 +35731,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35741,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,13 +35813,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,28 +35886,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>246.7130666537587</v>
+        <v>756.3484258820595</v>
       </c>
       <c r="P17" t="n">
-        <v>719.1512753359746</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36054,7 +36056,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36197,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327043</v>
+        <v>469.2069973599081</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36215,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,10 +36676,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36692,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36838,10 +36840,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37066,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>508.6956131767483</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
         <v>170.862691669754</v>
@@ -37142,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>508.6956131767483</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37555,16 +37557,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>832.9621348837863</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>517.3452397340902</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>-8.020322679707264e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>719.1512753359746</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M44" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>719.1512753359746</v>
+        <v>1055.297217885241</v>
       </c>
       <c r="O44" t="n">
-        <v>690.0946581506828</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>62.64522482284747</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,13 +38183,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>521540.2513877116</v>
+        <v>519748.0287964815</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16722200.63474372</v>
+        <v>16722200.63474371</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2152646.407911489</v>
+        <v>2152646.407911491</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7244531.265390284</v>
+        <v>7244531.265390282</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>248.2407153231156</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>101.8762729638809</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>111.9183464525217</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -831,13 +831,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>24.34318456170431</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -898,16 +898,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>292.1413474942973</v>
       </c>
       <c r="D5" t="n">
-        <v>44.14898434654627</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1071,7 +1071,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>85.55329631630653</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1122,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1147,13 +1147,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>92.84297126644577</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>348.2784950051806</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1305,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>24.34318456170453</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>389.1182434339568</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1384,13 +1384,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>295.7145992044774</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1615,19 +1615,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>204.4768301416909</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>157.7922224418617</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1782,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>172.6623007436909</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -2019,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2092,7 +2092,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2256,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>18.05677735225841</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>13.99728392830417</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3201,10 +3201,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -3252,10 +3252,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>168.7843377880174</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3678,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>173.7040795765152</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3751,13 +3751,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>402.2763010085995</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>107.3997314889826</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3915,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225732</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3963,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>120.4898091149242</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3988,7 +3988,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>319.0483244514667</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>337.6783262792273</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225732</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1316.858011710722</v>
+        <v>1133.414674792233</v>
       </c>
       <c r="C2" t="n">
-        <v>1316.858011710722</v>
+        <v>1133.414674792233</v>
       </c>
       <c r="D2" t="n">
-        <v>1316.858011710722</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="E2" t="n">
-        <v>883.0832668690169</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F2" t="n">
-        <v>455.2158372782247</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862856</v>
@@ -4333,16 +4333,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L2" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M2" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N2" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4357,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U2" t="n">
-        <v>2567.155500205286</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V2" t="n">
-        <v>2567.155500205286</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W2" t="n">
-        <v>2162.300045616319</v>
+        <v>1559.714245277141</v>
       </c>
       <c r="X2" t="n">
-        <v>1743.157582195629</v>
+        <v>1559.714245277141</v>
       </c>
       <c r="Y2" t="n">
-        <v>1743.157582195629</v>
+        <v>1559.714245277141</v>
       </c>
     </row>
     <row r="3">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516122</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="C4" t="n">
-        <v>628.4283978510853</v>
+        <v>590.3333424294652</v>
       </c>
       <c r="D4" t="n">
-        <v>628.4283978510853</v>
+        <v>424.4553496309879</v>
       </c>
       <c r="E4" t="n">
-        <v>458.6703941018225</v>
+        <v>254.6973458817252</v>
       </c>
       <c r="F4" t="n">
-        <v>281.9633400635787</v>
+        <v>77.9902918434814</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
         <v>53.40121652862856</v>
@@ -4512,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056491</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705994</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>532.1876844265735</v>
+        <v>1210.552450530246</v>
       </c>
       <c r="C5" t="n">
-        <v>532.1876844265735</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="D5" t="n">
-        <v>487.5927507431934</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E5" t="n">
-        <v>53.81800590148856</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
         <v>488.6559039815464</v>
@@ -4573,22 +4573,22 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4597,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2449.993599304467</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>2190.771296621484</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V5" t="n">
-        <v>2190.771296621484</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W5" t="n">
-        <v>1785.915842032517</v>
+        <v>2045.1381447155</v>
       </c>
       <c r="X5" t="n">
-        <v>1366.773378611828</v>
+        <v>2045.1381447155</v>
       </c>
       <c r="Y5" t="n">
-        <v>958.4872549114813</v>
+        <v>1636.852021015153</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>1406.536348780555</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>1311.446059927108</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>1217.325645254062</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>1006.82106495262</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>2100.972680272381</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>1915.649926005575</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>1760.782490244455</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>990.3147246321321</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C7" t="n">
-        <v>817.753013115357</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D7" t="n">
-        <v>651.8750203168797</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E7" t="n">
-        <v>482.117016567617</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F7" t="n">
-        <v>305.4099625293732</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G7" t="n">
-        <v>139.8186875552008</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="S7" t="n">
-        <v>2510.819457729424</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T7" t="n">
-        <v>2264.94001130788</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U7" t="n">
-        <v>1986.507010560985</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V7" t="n">
-        <v>1699.551502431415</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W7" t="n">
-        <v>1427.525098017707</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X7" t="n">
-        <v>1182.133343351119</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y7" t="n">
-        <v>1182.133343351119</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2511.062984811828</v>
+        <v>2109.248364062232</v>
       </c>
       <c r="C8" t="n">
-        <v>2072.920511995252</v>
+        <v>1671.105891245656</v>
       </c>
       <c r="D8" t="n">
-        <v>1637.010727169696</v>
+        <v>1235.1961064201</v>
       </c>
       <c r="E8" t="n">
-        <v>1203.235982327991</v>
+        <v>801.4213615783951</v>
       </c>
       <c r="F8" t="n">
-        <v>775.368552737199</v>
+        <v>373.5539319876029</v>
       </c>
       <c r="G8" t="n">
-        <v>373.970721360463</v>
+        <v>373.5539319876029</v>
       </c>
       <c r="H8" t="n">
-        <v>84.84056680367922</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I8" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J8" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="K8" t="n">
         <v>918.7740693889972</v>
       </c>
       <c r="L8" t="n">
-        <v>1963.518315095385</v>
+        <v>918.7740693889972</v>
       </c>
       <c r="M8" t="n">
         <v>1963.518315095385</v>
       </c>
       <c r="N8" t="n">
-        <v>1963.518315095385</v>
+        <v>3008.262560801772</v>
       </c>
       <c r="O8" t="n">
-        <v>2846.380210748971</v>
+        <v>3988.442227372079</v>
       </c>
       <c r="P8" t="n">
-        <v>3674.690085582366</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="Q8" t="n">
-        <v>4221.188871540961</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="R8" t="n">
-        <v>4221.188871540961</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S8" t="n">
-        <v>4221.188871540961</v>
+        <v>4137.536997724797</v>
       </c>
       <c r="T8" t="n">
-        <v>4127.408092483945</v>
+        <v>3917.469770597836</v>
       </c>
       <c r="U8" t="n">
-        <v>4127.408092483945</v>
+        <v>3658.247467914853</v>
       </c>
       <c r="V8" t="n">
-        <v>3764.791142417772</v>
+        <v>3295.630517848679</v>
       </c>
       <c r="W8" t="n">
-        <v>3764.791142417772</v>
+        <v>3295.630517848679</v>
       </c>
       <c r="X8" t="n">
-        <v>3345.648678997083</v>
+        <v>2943.834058247487</v>
       </c>
       <c r="Y8" t="n">
-        <v>2937.362555296736</v>
+        <v>2535.54793454714</v>
       </c>
     </row>
     <row r="9">
@@ -4877,19 +4877,19 @@
         <v>126.1594296146068</v>
       </c>
       <c r="H9" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I9" t="n">
-        <v>84.42377743081923</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J9" t="n">
-        <v>84.42377743081923</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K9" t="n">
-        <v>84.42377743081923</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="L9" t="n">
-        <v>84.42377743081923</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="M9" t="n">
         <v>1089.751822183213</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>793.9176148484312</v>
+        <v>934.9198145077505</v>
       </c>
       <c r="C10" t="n">
-        <v>621.3559033316561</v>
+        <v>762.3581029909755</v>
       </c>
       <c r="D10" t="n">
-        <v>455.4779105331788</v>
+        <v>596.4801101924982</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7199067839161</v>
+        <v>426.7221064432354</v>
       </c>
       <c r="F10" t="n">
-        <v>109.0128527456723</v>
+        <v>250.0150524049915</v>
       </c>
       <c r="G10" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H10" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I10" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J10" t="n">
         <v>171.0034625955091</v>
@@ -4989,25 +4989,25 @@
         <v>2701.083387333619</v>
       </c>
       <c r="S10" t="n">
-        <v>2541.842018631615</v>
+        <v>2682.844218290934</v>
       </c>
       <c r="T10" t="n">
-        <v>2295.96257221007</v>
+        <v>2436.96477186939</v>
       </c>
       <c r="U10" t="n">
-        <v>2017.529571463176</v>
+        <v>2158.531771122495</v>
       </c>
       <c r="V10" t="n">
-        <v>1730.574063333606</v>
+        <v>1871.576262992925</v>
       </c>
       <c r="W10" t="n">
-        <v>1458.547658919898</v>
+        <v>1599.549858579217</v>
       </c>
       <c r="X10" t="n">
-        <v>1213.15590425331</v>
+        <v>1354.158103912629</v>
       </c>
       <c r="Y10" t="n">
-        <v>985.7362335674184</v>
+        <v>1126.738433226738</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2109.248364062232</v>
+        <v>2468.201930727643</v>
       </c>
       <c r="C11" t="n">
-        <v>1671.105891245656</v>
+        <v>2030.059457911067</v>
       </c>
       <c r="D11" t="n">
-        <v>1235.1961064201</v>
+        <v>1637.010727169696</v>
       </c>
       <c r="E11" t="n">
-        <v>801.4213615783951</v>
+        <v>1203.235982327991</v>
       </c>
       <c r="F11" t="n">
-        <v>373.5539319876029</v>
+        <v>775.368552737199</v>
       </c>
       <c r="G11" t="n">
-        <v>373.5539319876029</v>
+        <v>373.970721360463</v>
       </c>
       <c r="H11" t="n">
-        <v>84.42377743081923</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="I11" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J11" t="n">
         <v>519.6784648837371</v>
@@ -5047,46 +5047,46 @@
         <v>1354.028756841915</v>
       </c>
       <c r="L11" t="n">
-        <v>1697.046479425607</v>
+        <v>2398.773002548303</v>
       </c>
       <c r="M11" t="n">
-        <v>1697.046479425607</v>
+        <v>2677.226145995912</v>
       </c>
       <c r="N11" t="n">
-        <v>1697.046479425607</v>
+        <v>2677.226145995912</v>
       </c>
       <c r="O11" t="n">
-        <v>2677.226145995913</v>
+        <v>2677.226145995912</v>
       </c>
       <c r="P11" t="n">
-        <v>3505.53602082931</v>
+        <v>3505.536020829309</v>
       </c>
       <c r="Q11" t="n">
         <v>4052.034806787904</v>
       </c>
       <c r="R11" t="n">
-        <v>4221.188871540961</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S11" t="n">
-        <v>4137.536997724798</v>
+        <v>4137.536997724797</v>
       </c>
       <c r="T11" t="n">
-        <v>3917.469770597837</v>
+        <v>3917.469770597836</v>
       </c>
       <c r="U11" t="n">
-        <v>3658.247467914854</v>
+        <v>3658.247467914853</v>
       </c>
       <c r="V11" t="n">
-        <v>3359.545852556796</v>
+        <v>3295.630517848679</v>
       </c>
       <c r="W11" t="n">
-        <v>2954.690397967829</v>
+        <v>3295.630517848679</v>
       </c>
       <c r="X11" t="n">
-        <v>2535.54793454714</v>
+        <v>2876.48805442799</v>
       </c>
       <c r="Y11" t="n">
-        <v>2535.54793454714</v>
+        <v>2468.201930727643</v>
       </c>
     </row>
     <row r="12">
@@ -5114,7 +5114,7 @@
         <v>126.1594296146068</v>
       </c>
       <c r="H12" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I12" t="n">
         <v>110.4874505912768</v>
@@ -5123,10 +5123,10 @@
         <v>435.0457755574892</v>
       </c>
       <c r="K12" t="n">
-        <v>1089.751822183213</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="L12" t="n">
-        <v>1089.751822183213</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="M12" t="n">
         <v>1089.751822183213</v>
@@ -5187,16 +5187,16 @@
         <v>426.7221064432354</v>
       </c>
       <c r="F13" t="n">
-        <v>250.0150524049916</v>
+        <v>250.0150524049915</v>
       </c>
       <c r="G13" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H13" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I13" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J13" t="n">
         <v>171.0034625955091</v>
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1979.921082152916</v>
+        <v>2283.413703265638</v>
       </c>
       <c r="C14" t="n">
-        <v>1541.77860933634</v>
+        <v>1845.271230449061</v>
       </c>
       <c r="D14" t="n">
-        <v>1105.868824510784</v>
+        <v>1409.361445623506</v>
       </c>
       <c r="E14" t="n">
-        <v>672.0940796690793</v>
+        <v>1202.819192955131</v>
       </c>
       <c r="F14" t="n">
-        <v>244.226650078287</v>
+        <v>774.9517633643391</v>
       </c>
       <c r="G14" t="n">
-        <v>84.84056680367922</v>
+        <v>373.5539319876029</v>
       </c>
       <c r="H14" t="n">
-        <v>84.84056680367922</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I14" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J14" t="n">
-        <v>519.6784648837371</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="K14" t="n">
-        <v>1354.028756841915</v>
+        <v>918.7740693889972</v>
       </c>
       <c r="L14" t="n">
-        <v>1697.046479425607</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="M14" t="n">
-        <v>1697.046479425607</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="N14" t="n">
-        <v>1697.046479425607</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="O14" t="n">
-        <v>2677.226145995913</v>
+        <v>2846.38021074897</v>
       </c>
       <c r="P14" t="n">
-        <v>3505.53602082931</v>
+        <v>3674.690085582366</v>
       </c>
       <c r="Q14" t="n">
-        <v>4052.034806787904</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="R14" t="n">
-        <v>4221.188871540961</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S14" t="n">
-        <v>4221.188871540961</v>
+        <v>4137.536997724797</v>
       </c>
       <c r="T14" t="n">
-        <v>4001.121644414</v>
+        <v>4137.536997724797</v>
       </c>
       <c r="U14" t="n">
-        <v>4001.121644414</v>
+        <v>3878.314695041814</v>
       </c>
       <c r="V14" t="n">
-        <v>3638.504694347826</v>
+        <v>3515.69774497564</v>
       </c>
       <c r="W14" t="n">
-        <v>3233.64923975886</v>
+        <v>3110.842290386674</v>
       </c>
       <c r="X14" t="n">
-        <v>2814.506776338171</v>
+        <v>2691.699826965985</v>
       </c>
       <c r="Y14" t="n">
-        <v>2406.220652637824</v>
+        <v>2283.413703265638</v>
       </c>
     </row>
     <row r="15">
@@ -5351,7 +5351,7 @@
         <v>126.1594296146068</v>
       </c>
       <c r="H15" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I15" t="n">
         <v>110.4874505912768</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1163.481938042701</v>
+        <v>934.9198145077505</v>
       </c>
       <c r="C16" t="n">
-        <v>990.9202265259256</v>
+        <v>762.3581029909755</v>
       </c>
       <c r="D16" t="n">
-        <v>825.0422337274483</v>
+        <v>596.4801101924982</v>
       </c>
       <c r="E16" t="n">
-        <v>655.2842299781855</v>
+        <v>426.7221064432354</v>
       </c>
       <c r="F16" t="n">
-        <v>478.5771759399417</v>
+        <v>250.0150524049915</v>
       </c>
       <c r="G16" t="n">
-        <v>312.9859009657694</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H16" t="n">
-        <v>173.0837266561439</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I16" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J16" t="n">
         <v>171.0034625955091</v>
@@ -5460,28 +5460,28 @@
         <v>2701.083387333619</v>
       </c>
       <c r="R16" t="n">
-        <v>2679.665566038991</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S16" t="n">
-        <v>2520.424197336987</v>
+        <v>2682.844218290934</v>
       </c>
       <c r="T16" t="n">
-        <v>2274.544750915442</v>
+        <v>2436.96477186939</v>
       </c>
       <c r="U16" t="n">
-        <v>2274.544750915442</v>
+        <v>2158.531771122495</v>
       </c>
       <c r="V16" t="n">
-        <v>2100.138386527876</v>
+        <v>1871.576262992925</v>
       </c>
       <c r="W16" t="n">
-        <v>1828.111982114167</v>
+        <v>1599.549858579217</v>
       </c>
       <c r="X16" t="n">
-        <v>1582.72022744758</v>
+        <v>1354.158103912629</v>
       </c>
       <c r="Y16" t="n">
-        <v>1355.300556761688</v>
+        <v>1126.738433226738</v>
       </c>
     </row>
     <row r="17">
@@ -5503,13 +5503,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5518,49 +5518,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1694.563362934248</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2820.294346370695</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
         <v>793.2056155771595</v>
@@ -5761,7 +5761,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5779,25 +5779,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>566.7757676570886</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>566.7757676570886</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3365.117609755799</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C22" t="n">
-        <v>3192.555898239023</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D22" t="n">
-        <v>3026.677905440546</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E22" t="n">
-        <v>2856.919901691283</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F22" t="n">
-        <v>2680.21284765304</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G22" t="n">
-        <v>2514.621572678867</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>4867.162567117437</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>4588.729566370543</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V22" t="n">
-        <v>4301.774058240973</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W22" t="n">
-        <v>4029.747653827265</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X22" t="n">
-        <v>3784.355899160677</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y22" t="n">
-        <v>3556.936228474786</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6214,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6265,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
         <v>1648.327823655249</v>
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2683.3639582443</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2404.930957497405</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6706,10 +6706,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.659051657336</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C34" t="n">
-        <v>920.0973401405612</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D34" t="n">
-        <v>754.2193473420839</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E34" t="n">
-        <v>584.4613435928212</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F34" t="n">
-        <v>407.7542895545774</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1284.477670376323</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y34" t="n">
-        <v>1284.477670376323</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3346.878440713113</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>3174.316729196338</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>3008.438736397861</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>2838.680732648598</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>2661.973678610354</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>2496.382403636182</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>5094.802844496297</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>4848.923398074752</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>4570.490397327858</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>4283.534889198289</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>4011.50848478458</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>3766.116730117992</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>3538.697059432101</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7162,40 +7162,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>4284.732138705585</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1041.416826573035</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C40" t="n">
-        <v>868.8551150562604</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D40" t="n">
-        <v>702.9771222577831</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E40" t="n">
-        <v>533.2191185085204</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F40" t="n">
-        <v>356.5120644702766</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G40" t="n">
-        <v>190.9207894961043</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7362,22 +7362,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2543.461783934675</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2265.02878318778</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>1978.07327505821</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1706.046870644502</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X40" t="n">
-        <v>1460.655115977914</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>1233.235445292023</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2510.646195438968</v>
+        <v>2199.988309279877</v>
       </c>
       <c r="C41" t="n">
-        <v>2072.503722622392</v>
+        <v>1761.8458364633</v>
       </c>
       <c r="D41" t="n">
-        <v>1636.593937796836</v>
+        <v>1325.936051637745</v>
       </c>
       <c r="E41" t="n">
-        <v>1202.819192955131</v>
+        <v>892.1613067960398</v>
       </c>
       <c r="F41" t="n">
-        <v>774.9517633643391</v>
+        <v>485.8216088075553</v>
       </c>
       <c r="G41" t="n">
-        <v>373.5539319876029</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H41" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I41" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J41" t="n">
         <v>519.6784648837371</v>
@@ -7417,46 +7417,46 @@
         <v>1354.028756841915</v>
       </c>
       <c r="L41" t="n">
-        <v>1354.028756841915</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="M41" t="n">
-        <v>1866.200544178664</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="N41" t="n">
-        <v>1866.200544178664</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="O41" t="n">
-        <v>2846.380210748971</v>
+        <v>2846.38021074897</v>
       </c>
       <c r="P41" t="n">
         <v>3674.690085582366</v>
       </c>
       <c r="Q41" t="n">
-        <v>4221.188871540961</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="R41" t="n">
-        <v>4221.188871540961</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S41" t="n">
-        <v>4221.188871540961</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="T41" t="n">
-        <v>4221.188871540961</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="U41" t="n">
-        <v>4221.188871540961</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="V41" t="n">
-        <v>3858.571921474788</v>
+        <v>3858.571921474787</v>
       </c>
       <c r="W41" t="n">
-        <v>3453.716466885821</v>
+        <v>3453.71646688582</v>
       </c>
       <c r="X41" t="n">
-        <v>3345.231889624223</v>
+        <v>3034.574003465131</v>
       </c>
       <c r="Y41" t="n">
-        <v>2936.945765923876</v>
+        <v>2626.287879764785</v>
       </c>
     </row>
     <row r="42">
@@ -7484,7 +7484,7 @@
         <v>126.1594296146068</v>
       </c>
       <c r="H42" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I42" t="n">
         <v>110.4874505912768</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1163.481938042701</v>
+        <v>953.1589835504346</v>
       </c>
       <c r="C43" t="n">
-        <v>990.9202265259256</v>
+        <v>780.5972720336596</v>
       </c>
       <c r="D43" t="n">
-        <v>825.0422337274483</v>
+        <v>614.7192792351823</v>
       </c>
       <c r="E43" t="n">
-        <v>655.2842299781855</v>
+        <v>444.9612754859195</v>
       </c>
       <c r="F43" t="n">
-        <v>478.5771759399417</v>
+        <v>268.2542214476757</v>
       </c>
       <c r="G43" t="n">
-        <v>312.9859009657694</v>
+        <v>102.6629464735034</v>
       </c>
       <c r="H43" t="n">
-        <v>173.0837266561439</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I43" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J43" t="n">
         <v>171.0034625955091</v>
@@ -7596,25 +7596,25 @@
         <v>2701.083387333619</v>
       </c>
       <c r="S43" t="n">
-        <v>2541.842018631615</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="T43" t="n">
-        <v>2541.842018631615</v>
+        <v>2455.203940912074</v>
       </c>
       <c r="U43" t="n">
-        <v>2263.40901788472</v>
+        <v>2176.770940165179</v>
       </c>
       <c r="V43" t="n">
-        <v>1976.453509755151</v>
+        <v>1889.81543203561</v>
       </c>
       <c r="W43" t="n">
-        <v>1704.427105341442</v>
+        <v>1617.789027621901</v>
       </c>
       <c r="X43" t="n">
-        <v>1582.72022744758</v>
+        <v>1372.397272955314</v>
       </c>
       <c r="Y43" t="n">
-        <v>1355.300556761688</v>
+        <v>1144.977602269422</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2221.516040882185</v>
+        <v>2116.336435463714</v>
       </c>
       <c r="C44" t="n">
-        <v>1783.373568065608</v>
+        <v>1678.193962647137</v>
       </c>
       <c r="D44" t="n">
-        <v>1347.463783240052</v>
+        <v>1242.284177821582</v>
       </c>
       <c r="E44" t="n">
-        <v>913.6890383983475</v>
+        <v>808.5094329798767</v>
       </c>
       <c r="F44" t="n">
-        <v>485.8216088075553</v>
+        <v>486.2383981804153</v>
       </c>
       <c r="G44" t="n">
-        <v>84.42377743081923</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="H44" t="n">
-        <v>84.42377743081923</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="I44" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J44" t="n">
         <v>519.6784648837371</v>
@@ -7654,46 +7654,46 @@
         <v>1354.028756841915</v>
       </c>
       <c r="L44" t="n">
-        <v>2398.773002548303</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="M44" t="n">
-        <v>2398.773002548303</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="N44" t="n">
-        <v>3443.517248254691</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="O44" t="n">
-        <v>3443.517248254691</v>
+        <v>2846.38021074897</v>
       </c>
       <c r="P44" t="n">
-        <v>3505.53602082931</v>
+        <v>3674.690085582366</v>
       </c>
       <c r="Q44" t="n">
-        <v>4052.034806787904</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="R44" t="n">
-        <v>4221.188871540961</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S44" t="n">
-        <v>4221.188871540961</v>
+        <v>4137.536997724797</v>
       </c>
       <c r="T44" t="n">
-        <v>4221.188871540961</v>
+        <v>4137.536997724797</v>
       </c>
       <c r="U44" t="n">
-        <v>4221.188871540961</v>
+        <v>4137.536997724797</v>
       </c>
       <c r="V44" t="n">
-        <v>3880.099653077095</v>
+        <v>3774.920047658624</v>
       </c>
       <c r="W44" t="n">
-        <v>3475.244198488128</v>
+        <v>3370.064593069657</v>
       </c>
       <c r="X44" t="n">
-        <v>3056.101735067439</v>
+        <v>2950.922129648968</v>
       </c>
       <c r="Y44" t="n">
-        <v>2647.815611367093</v>
+        <v>2542.636005948621</v>
       </c>
     </row>
     <row r="45">
@@ -7721,7 +7721,7 @@
         <v>126.1594296146068</v>
       </c>
       <c r="H45" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I45" t="n">
         <v>110.4874505912768</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1163.481938042701</v>
+        <v>953.1589835504346</v>
       </c>
       <c r="C46" t="n">
-        <v>990.9202265259256</v>
+        <v>780.5972720336596</v>
       </c>
       <c r="D46" t="n">
-        <v>825.0422337274483</v>
+        <v>614.7192792351823</v>
       </c>
       <c r="E46" t="n">
-        <v>655.2842299781855</v>
+        <v>444.9612754859195</v>
       </c>
       <c r="F46" t="n">
-        <v>478.5771759399417</v>
+        <v>268.2542214476757</v>
       </c>
       <c r="G46" t="n">
-        <v>312.9859009657694</v>
+        <v>102.6629464735034</v>
       </c>
       <c r="H46" t="n">
-        <v>173.0837266561439</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I46" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J46" t="n">
         <v>171.0034625955091</v>
@@ -7836,22 +7836,22 @@
         <v>2701.083387333619</v>
       </c>
       <c r="T46" t="n">
-        <v>2665.52689540434</v>
+        <v>2455.203940912074</v>
       </c>
       <c r="U46" t="n">
-        <v>2387.093894657445</v>
+        <v>2176.770940165179</v>
       </c>
       <c r="V46" t="n">
-        <v>2100.138386527876</v>
+        <v>1889.81543203561</v>
       </c>
       <c r="W46" t="n">
-        <v>1828.111982114167</v>
+        <v>1617.789027621901</v>
       </c>
       <c r="X46" t="n">
-        <v>1582.72022744758</v>
+        <v>1372.397272955314</v>
       </c>
       <c r="Y46" t="n">
-        <v>1355.300556761688</v>
+        <v>1144.977602269422</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O2" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L2" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -8221,7 +8221,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8297,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158822</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8458,22 +8458,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>1055.29721788524</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O8" t="n">
-        <v>891.7796925793796</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P8" t="n">
-        <v>836.6766412458549</v>
+        <v>235.0976203726077</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8528,19 +8528,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8695,16 +8695,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>346.4825480643353</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>281.265801462232</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8771,13 +8771,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>661.3192390158825</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>346.4825480643353</v>
+        <v>956.9964391814812</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9166,19 +9166,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
-        <v>756.3484258820595</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9409,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9476,19 +9476,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>469.2069973599081</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,10 +9956,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10354,13 +10354,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
-        <v>832.9621348837863</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11065,10 +11065,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>517.3452397340893</v>
       </c>
       <c r="M41" t="n">
-        <v>517.3452397340902</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11302,25 +11302,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1055.29721788524</v>
+        <v>517.3452397340893</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1055.297217885241</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>62.64522482284747</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22552,10 +22552,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>183.3099716541844</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22567,7 +22567,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,22 +22597,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>154.7538066922724</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -22707,10 +22707,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>58.91774794908564</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22719,13 +22719,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>139.5921776627263</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22786,16 +22786,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>141.6197005941136</v>
       </c>
       <c r="D5" t="n">
-        <v>387.4017026307536</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -22840,7 +22840,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -22849,7 +22849,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22959,7 +22959,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>52.94985625022269</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23010,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23035,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>125.023583589246</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23086,7 +23086,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>66.67254378130184</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23193,7 +23193,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -23229,7 +23229,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>42.43244354334314</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>63.27618136103433</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>224.9601672515969</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>239.591630621107</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>111.423652304583</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>120.4463752142708</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>229.4233680290251</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>74.1534993319043</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>69.71657238081409</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>21.31245428628478</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>307.5513072974998</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>120.4463752142719</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>122.4480280049975</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>104.5404308434176</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -25924,7 +25924,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>21.31245428628438</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>120.4463752142719</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>448961.7091839094</v>
+        <v>448961.7091839093</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>607988.0081232062</v>
+        <v>607988.0081232061</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>607988.0081232062</v>
+        <v>607988.0081232061</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>607988.0081232062</v>
+        <v>607988.0081232061</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>699423.4668633731</v>
+        <v>699423.4668633728</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>699423.4668633731</v>
+        <v>699423.4668633729</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>699423.4668633731</v>
+        <v>699423.4668633728</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>699423.4668633731</v>
+        <v>699423.4668633728</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>699423.4668633731</v>
+        <v>699423.4668633728</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>607988.0081232062</v>
+        <v>607988.0081232061</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>607988.0081232062</v>
+        <v>607988.0081232061</v>
       </c>
     </row>
   </sheetData>
@@ -26322,13 +26322,13 @@
         <v>251889.8915694593</v>
       </c>
       <c r="E2" t="n">
-        <v>251889.8915694594</v>
+        <v>251889.8915694593</v>
       </c>
       <c r="F2" t="n">
         <v>251889.8915694593</v>
       </c>
       <c r="G2" t="n">
-        <v>289771.6712755438</v>
+        <v>289771.6712755437</v>
       </c>
       <c r="H2" t="n">
         <v>289771.6712755438</v>
@@ -26343,13 +26343,13 @@
         <v>289771.6712755437</v>
       </c>
       <c r="L2" t="n">
-        <v>289771.6712755438</v>
+        <v>289771.6712755437</v>
       </c>
       <c r="M2" t="n">
-        <v>289771.6712755438</v>
+        <v>289771.6712755437</v>
       </c>
       <c r="N2" t="n">
-        <v>289771.6712755438</v>
+        <v>289771.6712755437</v>
       </c>
       <c r="O2" t="n">
         <v>251889.8915694593</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>61110.89210613183</v>
+        <v>61110.8921061319</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>98144.1370162042</v>
+        <v>98144.13701620419</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>43649.82185483626</v>
       </c>
       <c r="D4" t="n">
-        <v>59110.9836353185</v>
+        <v>59110.98363531849</v>
       </c>
       <c r="E4" t="n">
         <v>59110.98363531849</v>
@@ -26444,19 +26444,19 @@
         <v>68000.69828933279</v>
       </c>
       <c r="K4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="L4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="M4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="N4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="O4" t="n">
-        <v>59110.98363531851</v>
+        <v>59110.98363531849</v>
       </c>
       <c r="P4" t="n">
         <v>59110.98363531849</v>
@@ -26472,16 +26472,16 @@
         <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>97789.67084742262</v>
+        <v>97789.67084742259</v>
       </c>
       <c r="E5" t="n">
-        <v>64162.07084742261</v>
+        <v>64162.0708474226</v>
       </c>
       <c r="F5" t="n">
-        <v>64162.07084742261</v>
+        <v>64162.0708474226</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>64162.07084742261</v>
+        <v>64162.0708474226</v>
       </c>
       <c r="P5" t="n">
-        <v>64162.07084742261</v>
+        <v>64162.0708474226</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-155556.869348791</v>
+        <v>-156051.7595773722</v>
       </c>
       <c r="C6" t="n">
-        <v>68142.82923525388</v>
+        <v>67647.93900667265</v>
       </c>
       <c r="D6" t="n">
-        <v>-25467.48907637532</v>
+        <v>-25662.90332351289</v>
       </c>
       <c r="E6" t="n">
-        <v>128616.8370867183</v>
+        <v>128421.4228395806</v>
       </c>
       <c r="F6" t="n">
-        <v>128616.8370867182</v>
+        <v>128421.4228395807</v>
       </c>
       <c r="G6" t="n">
-        <v>82941.84227428667</v>
+        <v>82918.61793490392</v>
       </c>
       <c r="H6" t="n">
-        <v>144052.7343804185</v>
+        <v>144029.5100410358</v>
       </c>
       <c r="I6" t="n">
-        <v>144052.7343804184</v>
+        <v>144029.5100410358</v>
       </c>
       <c r="J6" t="n">
-        <v>-30598.6143372877</v>
+        <v>-30621.83867667034</v>
       </c>
       <c r="K6" t="n">
-        <v>144052.7343804184</v>
+        <v>144029.5100410358</v>
       </c>
       <c r="L6" t="n">
-        <v>45908.59736421431</v>
+        <v>45885.37302483159</v>
       </c>
       <c r="M6" t="n">
-        <v>144052.7343804185</v>
+        <v>144029.5100410358</v>
       </c>
       <c r="N6" t="n">
-        <v>144052.7343804185</v>
+        <v>144029.5100410358</v>
       </c>
       <c r="O6" t="n">
-        <v>128616.8370867182</v>
+        <v>128421.4228395807</v>
       </c>
       <c r="P6" t="n">
-        <v>128616.8370867182</v>
+        <v>128421.4228395807</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
         <v>1055.29721788524</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>222.963285499505</v>
+        <v>222.9632854995052</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>222.963285499505</v>
+        <v>222.9632854995052</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,19 +34701,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O2" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L2" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -34941,7 +34941,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158822</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094345</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35108,7 +35108,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35178,22 +35178,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>1055.29721788524</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O8" t="n">
-        <v>891.7796925793796</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P8" t="n">
-        <v>836.6766412458546</v>
+        <v>235.0976203726077</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35248,19 +35248,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35415,16 +35415,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>346.4825480643353</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>281.265801462232</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458551</v>
@@ -35491,13 +35491,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>661.3192390158825</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>346.4825480643353</v>
+        <v>956.9964391814812</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35664,13 +35664,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35886,19 +35886,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
-        <v>756.3484258820595</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -36129,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36196,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>469.2069973599081</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36220,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36293,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -37074,13 +37074,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37478,13 +37478,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
-        <v>832.9621348837863</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37785,10 +37785,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>517.3452397340893</v>
       </c>
       <c r="M41" t="n">
-        <v>517.3452397340902</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38022,25 +38022,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1055.29721788524</v>
+        <v>517.3452397340893</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1055.297217885241</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>62.64522482284747</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
